--- a/src/main/resources/bak/上线站点信息备份.xlsx
+++ b/src/main/resources/bak/上线站点信息备份.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="218">
   <si>
     <t>站点编号</t>
   </si>
@@ -604,6 +604,60 @@
   </si>
   <si>
     <t>10.168.72.1</t>
+  </si>
+  <si>
+    <t>AH4002</t>
+  </si>
+  <si>
+    <t>衢州衢江黄坛口站</t>
+  </si>
+  <si>
+    <t>10.168.100.129</t>
+  </si>
+  <si>
+    <t>AK9001</t>
+  </si>
+  <si>
+    <t>丽水市城南站</t>
+  </si>
+  <si>
+    <t>10.168.122.129</t>
+  </si>
+  <si>
+    <t>AJ6001</t>
+  </si>
+  <si>
+    <t>台州黄岩三江口站</t>
+  </si>
+  <si>
+    <t>10.168.89.1</t>
+  </si>
+  <si>
+    <t>AK9002</t>
+  </si>
+  <si>
+    <t>丽水市外舍站</t>
+  </si>
+  <si>
+    <t>10.168.117.1</t>
+  </si>
+  <si>
+    <t>AF4002</t>
+  </si>
+  <si>
+    <t>嘉兴南湖槜李站</t>
+  </si>
+  <si>
+    <t>10.168.83.1</t>
+  </si>
+  <si>
+    <t>AEE002</t>
+  </si>
+  <si>
+    <t>湖州德清新市城西站</t>
+  </si>
+  <si>
+    <t>10.168.76.129</t>
   </si>
   <si>
     <t>3308A01</t>
@@ -623,9 +677,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -634,6 +688,73 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -654,51 +775,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,21 +805,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -743,17 +813,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,16 +828,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,13 +850,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,67 +1012,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,97 +1030,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,6 +1041,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1001,30 +1081,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,16 +1109,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1076,17 +1141,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1095,10 +1149,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,137 +1161,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1303,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1603,10 +1660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A59" sqref="$A59:$XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2661,24 +2718,132 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A53" s="2" t="s">
+    <row r="53" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A53" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A54" s="4" t="s">
         <v>199</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A56" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A57" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
